--- a/Study 3 Materials/study-3-scales.xlsx
+++ b/Study 3 Materials/study-3-scales.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 3 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF61C1A1-08D5-4DE5-9D33-8E34DD1D5C0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD74A48-2473-4B43-8700-6B443858831A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="variables_halalcoo_2019-03-09_1" sheetId="1" r:id="rId1"/>
+    <sheet name="scales study 3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="276">
   <si>
     <t>TYPE</t>
   </si>
@@ -40,9 +48,6 @@
     <t>Seberapa sering anda berinteraksi langsung dengan orang Yahudi?</t>
   </si>
   <si>
-    <t>Demografis</t>
-  </si>
-  <si>
     <t>1: tidak pernah sama sekali; 2: satu kali; 3: beberapa kali; 4: hampir setiap hari</t>
   </si>
   <si>
@@ -187,12 +192,6 @@
     <t>BJC_12</t>
   </si>
   <si>
-    <t>Organisasi semacam Freemasons adalah sarana orang-orang Yahudi untuk mempengaruhi pemerintahan di seluruh dunias secara rahasia</t>
-  </si>
-  <si>
-    <t>Organizations such as the Freemasons are a means for Jews to establish a secret world government</t>
-  </si>
-  <si>
     <t>Data keamanan vaksin seringkali ditutup-tutupi</t>
   </si>
   <si>
@@ -268,12 +267,6 @@
     <t>VBC_08</t>
   </si>
   <si>
-    <t>0: Tidak; 1: Ya</t>
-  </si>
-  <si>
-    <t>0: No; 1: Yes</t>
-  </si>
-  <si>
     <t>How often do you interact directly with Jews?</t>
   </si>
   <si>
@@ -334,106 +327,561 @@
     <t>NOMINAL</t>
   </si>
   <si>
+    <t>STH_01</t>
+  </si>
+  <si>
+    <t>Memerangi kaum Yahudi sama dengan berjihad</t>
+  </si>
+  <si>
+    <t>Fighting Jews equals to jihad</t>
+  </si>
+  <si>
+    <t>STH_02</t>
+  </si>
+  <si>
+    <t>Tidak ada satupun orang Yahudi yang menginginkan kemerdekaan Palestina</t>
+  </si>
+  <si>
+    <t>Not a single Jew wants Palestinian independence</t>
+  </si>
+  <si>
+    <t>STH_03</t>
+  </si>
+  <si>
+    <t>STH_04</t>
+  </si>
+  <si>
+    <t>Hitler's action to exterminate some Jews was the right decision</t>
+  </si>
+  <si>
+    <t>STH_05</t>
+  </si>
+  <si>
+    <t>STH_06</t>
+  </si>
+  <si>
+    <t>Saya menolak/memboikot produk-produk makanan asal Amerika Serikat karena perusahaan produsennya mendukung penjajahan terhadap Palestina</t>
+  </si>
+  <si>
+    <t>I refused to buy/boycotted food products from the United States because its manufacturing companies supported the occupation of Palestine</t>
+  </si>
+  <si>
+    <t>STH_07</t>
+  </si>
+  <si>
+    <t>Saya menolak vaksinasi pada bayi karena vaksin merupakan produksi kaum Yahudi untuk merusak umat Islam</t>
+  </si>
+  <si>
+    <t>I refuse vaccination in infants because the vaccine is a production of Jews in order to harm Muslims</t>
+  </si>
+  <si>
+    <t>STH_08</t>
+  </si>
+  <si>
+    <t>Saya memilih tidak menonton film barat, utamanya produksi Hollywood, karena mengandung propaganda Yahudi</t>
+  </si>
+  <si>
+    <t>I chose not to watch western films, mainly Hollywood productions, because they contained Jewish propaganda</t>
+  </si>
+  <si>
+    <t>ATT_CHECK</t>
+  </si>
+  <si>
+    <t>If you complete this questionnaire attentively, click number 4 here.</t>
+  </si>
+  <si>
+    <t>Apabila anda mengisi kuesioner ini dengan sungguh-sungguh, klik angka 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yahudi merupakan ancaman bagi umat Islam karena menyebarkan paham liberalisme dan sekulerisme </t>
+  </si>
+  <si>
+    <t>Jews are a threat to Muslims because they spread the idea of liberalism and secularism</t>
+  </si>
+  <si>
+    <t>Organisasi rahasia semacam Freemasons dan Iluminati adalah sarana orang-orang Yahudi untuk mempengaruhi pemerintahan di seluruh dunia secara rahasia</t>
+  </si>
+  <si>
+    <t>Secret organizations such as the Freemasons and Iluminati are a means for Jews to establish a secret world government</t>
+  </si>
+  <si>
+    <t>All individuals who claim to be Muslim should feel sad and angry when Jews attack Palestinians</t>
+  </si>
+  <si>
+    <t>Seluruh individu yang mengaku beragama Islam seharusnya merasa sedih dan marah  ketika orang-orang Yahudi menyerang warga Palestina</t>
+  </si>
+  <si>
+    <t>MNC_01</t>
+  </si>
+  <si>
+    <t>Saya ragu-ragu untuk menggunakan vaksin coronavirus yang diproduksi oleh perusahaan Israel tersebut</t>
+  </si>
+  <si>
+    <t>Tindakan Hitler untuk memusnahkan sebagian orang Yahudi adalah keputusan yang tepat</t>
+  </si>
+  <si>
+    <t>Ketika anda memikirkan tentang masalah yang ditimbulkan oleh coronavirus (COVID-19), kelompok yang mana berikut ini yang anda persalahkan sampai batas tertentu dan seharusnya bertanggung jawab atas masalah pandemi coronavirus? [Yahudi]</t>
+  </si>
+  <si>
+    <t>Ketika anda memikirkan tentang masalah yang ditimbulkan oleh coronavirus (COVID-19), kelompok yang mana berikut ini yang anda persalahkan sampai batas tertentu dan seharusnya bertanggung jawab atas masalah pandemi coronavirus? [Cina Indonesia]</t>
+  </si>
+  <si>
+    <t>Ketika anda memikirkan tentang masalah yang ditimbulkan oleh coronavirus (COVID-19), kelompok yang mana berikut ini yang anda persalahkan sampai batas tertentu dan seharusnya bertanggung jawab atas masalah pandemi coronavirus? [Muslim]</t>
+  </si>
+  <si>
+    <t>Ketika anda memikirkan tentang masalah yang ditimbulkan oleh coronavirus (COVID-19), kelompok yang mana berikut ini yang anda persalahkan sampai batas tertentu dan seharusnya bertanggung jawab atas masalah pandemi coronavirus? [WNA China]</t>
+  </si>
+  <si>
+    <t>Ketika anda memikirkan tentang masalah yang ditimbulkan oleh coronavirus (COVID-19), kelompok yang mana berikut ini yang anda persalahkan sampai batas tertentu dan seharusnya bertanggung jawab atas masalah pandemi coronavirus? [WNI]</t>
+  </si>
+  <si>
+    <t>BL_01</t>
+  </si>
+  <si>
+    <t>BL_02</t>
+  </si>
+  <si>
+    <t>BL_03</t>
+  </si>
+  <si>
+    <t>BL_04</t>
+  </si>
+  <si>
+    <t>BL_05</t>
+  </si>
+  <si>
+    <t>VC_01</t>
+  </si>
+  <si>
+    <t>VC_02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seandainya vaksin untuk coronavirus telah tersedia, seberapa mungkin anda akan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>melakukan vaksinasi untuk diri anda?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seandainya vaksin untuk coronavirus telah tersedia, seberapa mungkin anda akan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>melakukan vaksinasi untuk keluarga anda?</t>
+    </r>
+  </si>
+  <si>
+    <t>Manipulation Check (Vaccine Endorsement)</t>
+  </si>
+  <si>
+    <t>Jewish Symbolic Threat (Manipulation Check for Identity Threat)</t>
+  </si>
+  <si>
+    <t>Blame [The Jews]</t>
+  </si>
+  <si>
+    <t>Blame [Indonesian Chinese]</t>
+  </si>
+  <si>
+    <t>Blame [Muslims]</t>
+  </si>
+  <si>
+    <t>Blame [China Nationals]</t>
+  </si>
+  <si>
+    <t>Blame [Indonesia Nationals]</t>
+  </si>
+  <si>
+    <t>Vaccination Decision (coronavirus)</t>
+  </si>
+  <si>
+    <t>When you think about problems caused by coronavirus (COVID-19), which of the following groups do you blame to some extent and should be held responsible for the coronavirus pandemic problem? [The Jews]</t>
+  </si>
+  <si>
+    <t>When you think about problems caused by coronavirus (COVID-19), which of the following groups do you blame to some extent and should be held responsible for the coronavirus pandemic problem? [The Chinese Indonesians]</t>
+  </si>
+  <si>
+    <t>When you think about problems caused by coronavirus (COVID-19), which of the following groups do you blame to some extent and should be held responsible for the coronavirus pandemic problem? [The China Nationals]</t>
+  </si>
+  <si>
+    <t>When you think about problems caused by coronavirus (COVID-19), which of the following groups do you blame to some extent and should be held responsible for the coronavirus pandemic problem? [The Muslims]</t>
+  </si>
+  <si>
+    <t>When you think about problems caused by coronavirus (COVID-19), which of the following groups do you blame to some extent and should be held responsible for the coronavirus pandemic problem? [The Indonesia Nationals]</t>
+  </si>
+  <si>
+    <t>If a vaccine for coronavirus is available, how likely are you to vaccinate yourself?</t>
+  </si>
+  <si>
+    <t>If a vaccine for coronavirus is available, how likely are you to vaccinate your family?</t>
+  </si>
+  <si>
     <t>DEMO_6</t>
   </si>
   <si>
-    <t>Apakah anda memiliki anak berusia dibawah 5 tahun?</t>
+    <t>Berapa kira-kira pendapatan semua anggota keluarga inti anda yang bekerja selama sebulan?</t>
   </si>
   <si>
     <t>DEMO_7</t>
   </si>
   <si>
-    <t>Berapa usia anak anda (yang balita tersebut)? (Ket: Apabila anda memiliki lebih dari satu anak berusia dibawah 5 tahun, maka tuliskan usia anak yang termuda.)</t>
-  </si>
-  <si>
-    <t>How old is your child (toddler)? (Note: If you have more than one toddler, write down the age of your youngest child)</t>
-  </si>
-  <si>
-    <t>Do you have children under 5 years old?</t>
-  </si>
-  <si>
-    <t>STH_01</t>
-  </si>
-  <si>
-    <t>Memerangi kaum Yahudi sama dengan berjihad</t>
-  </si>
-  <si>
-    <t>Fighting Jews equals to jihad</t>
-  </si>
-  <si>
-    <t>Jewish Symbolic Threat</t>
-  </si>
-  <si>
-    <t>STH_02</t>
-  </si>
-  <si>
-    <t>Tidak ada satupun orang Yahudi yang menginginkan kemerdekaan Palestina</t>
-  </si>
-  <si>
-    <t>Not a single Jew wants Palestinian independence</t>
-  </si>
-  <si>
-    <t>STH_03</t>
-  </si>
-  <si>
-    <t>Seluruh individu yang mengaku beragama Islam seharusnya merasa sedih dan tersinggung  ketika orang-orang Yahudi menyerang warga Palestina</t>
-  </si>
-  <si>
-    <t>All individuals who claim to be Muslim should feel sad and offended when Jews attack Palestinians</t>
-  </si>
-  <si>
-    <t>STH_04</t>
-  </si>
-  <si>
-    <t>Tindakan Hitler untuk memusnahkan sebagian orang Yahudi adalah tindakan keputusan yang tepat</t>
-  </si>
-  <si>
-    <t>Hitler's action to exterminate some Jews was the right decision</t>
-  </si>
-  <si>
-    <t>STH_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yahudi merusak akidah umat Islam melalui penyebaran paham liberalisme dan sekulerisme </t>
-  </si>
-  <si>
-    <t>Jews destroy the faith of Muslims through the spread of liberalism and secularism.</t>
-  </si>
-  <si>
-    <t>STH_06</t>
-  </si>
-  <si>
-    <t>Saya menolak/memboikot produk-produk makanan asal Amerika Serikat karena perusahaan produsennya mendukung penjajahan terhadap Palestina</t>
-  </si>
-  <si>
-    <t>I refused to buy/boycotted food products from the United States because its manufacturing companies supported the occupation of Palestine</t>
-  </si>
-  <si>
-    <t>STH_07</t>
-  </si>
-  <si>
-    <t>Saya menolak vaksinasi pada bayi karena vaksin merupakan produksi kaum Yahudi untuk merusak umat Islam</t>
-  </si>
-  <si>
-    <t>I refuse vaccination in infants because the vaccine is a production of Jews in order to harm Muslims</t>
-  </si>
-  <si>
-    <t>STH_08</t>
-  </si>
-  <si>
-    <t>Saya memilih tidak menonton film barat, utamanya produksi Hollywood, karena mengandung propaganda Yahudi</t>
-  </si>
-  <si>
-    <t>I chose not to watch western films, mainly Hollywood productions, because they contained Jewish propaganda</t>
-  </si>
-  <si>
-    <t>ATT_CHECK</t>
-  </si>
-  <si>
-    <t>If you complete this questionnaire attentively, click number 4 here.</t>
-  </si>
-  <si>
-    <t>Apabila anda mengisi kuesioner ini dengan sungguh-sungguh, klik angka 4.</t>
+    <t>1: Javanese; 2: Sundanese; 3: Batak; 4: Madurese; 5: Betawi; 6: Minangnese; 7: Bugis; 8: Malay; 9: Indonesian Arabs; 10: Banten; 11: Banjarese; 12: Balinese; 13: Sasak; 14: Dayak; 15: Tionghoa (Indonesian Chinese); 16:  Mixed; 17: Others</t>
+  </si>
+  <si>
+    <t>1: Jawa; 2: Sunda; 3: Batak; 4: Madura; 5: Betawi; 6: Minang; 7: Bugis; 8: Melayu; 9: Arab Indonesia; 10: Banten; 11: Banjar; 12: Bali; 13: Sasak; 14: Dayak; 15: Tionghoa (Cina-Indonesia); 16: Saya bagian dari 2 atau lebih kelompok etnis yang berbeda; 17: Lainnya</t>
+  </si>
+  <si>
+    <t>DEMO_8</t>
+  </si>
+  <si>
+    <t>Saat ini anda tinggal di kota…</t>
+  </si>
+  <si>
+    <t>1: Surabaya; 2: Jakarta; 3: Bandung; 4: Yogyakarta; 5: Malang; 6: Lainnya</t>
+  </si>
+  <si>
+    <t>1: Surabaya; 2: Jakarta; 3: Bandung; 4: Yogyakarta; 5: Malang; 6: Others</t>
+  </si>
+  <si>
+    <t>Demographic Questions</t>
+  </si>
+  <si>
+    <t>What is the houshold income of all your core family members?</t>
+  </si>
+  <si>
+    <t>Which of the ethnic groups below best describes you?</t>
+  </si>
+  <si>
+    <t>Diantara kelompok etnis di bawah ini, manakah yang paling dekat menggambarkan diri anda?</t>
+  </si>
+  <si>
+    <t>I am hesitant to use the coronavirus vaccine produced by the Israeli company</t>
+  </si>
+  <si>
+    <t>1: Least compatible with my opinion; 7: Very compatible with my opinion</t>
+  </si>
+  <si>
+    <t>1: Sangat tidak sesuai dengan diri saya; 7: Sangat sesuai dengan diri saya</t>
+  </si>
+  <si>
+    <t>1: Kemungkinan besar menolak; 7: Kemungkinan besar melakukan</t>
+  </si>
+  <si>
+    <t>1: Very much likely to refuse; 7: Very much likely to accept</t>
+  </si>
+  <si>
+    <t>1: Sangat bersalah; 5: Sangat tidak bersalah</t>
+  </si>
+  <si>
+    <t>1: Very much to be blamed on; 5: Completely not to be blamed on</t>
+  </si>
+  <si>
+    <t>DEMO_9</t>
+  </si>
+  <si>
+    <t>Diantara pilihan berikut ini, manakah yang paling dekat menggambarkan pekerjaan atau aktivitas anda anda sehari-hari?</t>
+  </si>
+  <si>
+    <t>1: Di sektor publik (pegawai negeri); 2: Di sektor privat (swasta/wirausaha mandiri); 3: Di sektor non-profit (Pekerja sosial, kader lingkungan, kader PAUD, LSM, dll.); 4: Sebagai Ibu rumah tangga; 5: Sebagai Pelajar; 6: Sebagai Mahasiswa</t>
+  </si>
+  <si>
+    <t>Which of the following choices best describes your work or your daily activities?</t>
+  </si>
+  <si>
+    <t>1: In the public sector (civil servants); 2: In the private sector (private/independent entrepreneurs); 3: In the non-profit sector (social workers, environmental cadres, PAUD cadres, NGOs, etc.); 4: As a housewife; 5: As a Student; 6: As a Student</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>Interview number (ongoing)</t>
+  </si>
+  <si>
+    <t>METRIC</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>QUESTNNR</t>
+  </si>
+  <si>
+    <t>Questionnaire that has been used in the interview</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>MODE</t>
+  </si>
+  <si>
+    <t>Interview mode</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>Time the interview has started (Europe/Berlin)</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TIME001</t>
+  </si>
+  <si>
+    <t>Time spent on page 1</t>
+  </si>
+  <si>
+    <t>TIME002</t>
+  </si>
+  <si>
+    <t>Time spent on page 2</t>
+  </si>
+  <si>
+    <t>TIME003</t>
+  </si>
+  <si>
+    <t>Time spent on page 3</t>
+  </si>
+  <si>
+    <t>TIME005</t>
+  </si>
+  <si>
+    <t>Time spent on page 5</t>
+  </si>
+  <si>
+    <t>TIME006</t>
+  </si>
+  <si>
+    <t>Time spent on page 6</t>
+  </si>
+  <si>
+    <t>TIME007</t>
+  </si>
+  <si>
+    <t>Time spent on page 7</t>
+  </si>
+  <si>
+    <t>TIME008</t>
+  </si>
+  <si>
+    <t>Time spent on page 8</t>
+  </si>
+  <si>
+    <t>TIME009</t>
+  </si>
+  <si>
+    <t>Time spent on page 9</t>
+  </si>
+  <si>
+    <t>TIME010</t>
+  </si>
+  <si>
+    <t>Time spent on page 10</t>
+  </si>
+  <si>
+    <t>TIME011</t>
+  </si>
+  <si>
+    <t>Time spent on page 11</t>
+  </si>
+  <si>
+    <t>TIME012</t>
+  </si>
+  <si>
+    <t>Time spent on page 12</t>
+  </si>
+  <si>
+    <t>TIME013</t>
+  </si>
+  <si>
+    <t>Time spent on page 13</t>
+  </si>
+  <si>
+    <t>TIME014</t>
+  </si>
+  <si>
+    <t>Time spent on page 14</t>
+  </si>
+  <si>
+    <t>TIME015</t>
+  </si>
+  <si>
+    <t>Time spent on page 15</t>
+  </si>
+  <si>
+    <t>TIME_SUM</t>
+  </si>
+  <si>
+    <t>Time spent overall (except outliers)</t>
+  </si>
+  <si>
+    <t>MAILSENT</t>
+  </si>
+  <si>
+    <t>Time when the invitation mailing was sent (personally identifiable recipients, only)</t>
+  </si>
+  <si>
+    <t>LASTDATA</t>
+  </si>
+  <si>
+    <t>Time when the data was most recently updated</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>Has the interview been finished (reached last page)?</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>Q_VIEWER</t>
+  </si>
+  <si>
+    <t>Did the respondent only view the questionnaire, omitting mandatory questions?</t>
+  </si>
+  <si>
+    <t>LASTPAGE</t>
+  </si>
+  <si>
+    <t>Last page that the participant has handled in the questionnaire</t>
+  </si>
+  <si>
+    <t>MAXPAGE</t>
+  </si>
+  <si>
+    <t>Hindmost page handled by the participant</t>
+  </si>
+  <si>
+    <t>MISSING</t>
+  </si>
+  <si>
+    <t>Missing answers in percent</t>
+  </si>
+  <si>
+    <t>MISSREL</t>
+  </si>
+  <si>
+    <t>Missing answers (weighted by relevance)</t>
+  </si>
+  <si>
+    <t>TIME_RSI</t>
+  </si>
+  <si>
+    <t>Degradation points for being very fast</t>
+  </si>
+  <si>
+    <t>DEG_TIME</t>
+  </si>
+  <si>
+    <t>DE01</t>
+  </si>
+  <si>
+    <t>SELECTION</t>
+  </si>
+  <si>
+    <t>Apakah anda beragama Islam?</t>
+  </si>
+  <si>
+    <t>DE02</t>
+  </si>
+  <si>
+    <t>Apakah anda bekerja sebagai tenaga kesehatan?</t>
+  </si>
+  <si>
+    <t>DE03</t>
+  </si>
+  <si>
+    <t>Apakah anda berusia 18 tahun ke atas?</t>
+  </si>
+  <si>
+    <t>DE05</t>
+  </si>
+  <si>
+    <t>Dengan ini, saya menyatakan bersedia berpartisipasi.</t>
+  </si>
+  <si>
+    <t>1: Ya, saya beragama Islam; 2: Tidak, saya tidak beragama Islam</t>
+  </si>
+  <si>
+    <t>1: Ya, saya adalah seorang tenaga kesehatan; 2: Tidak, saya tidak bekerja sebagai tenaga kesehatan</t>
+  </si>
+  <si>
+    <t>1: Ya, saya sudah berusia 18 tahun ke atas; 2: Tidak, usia saya di bawah 18 tahun</t>
+  </si>
+  <si>
+    <t>1: Saya setuju; 2: Saya tidak setuju</t>
+  </si>
+  <si>
+    <t>Are you a Muslim?</t>
+  </si>
+  <si>
+    <t>Do you work as a health worker?</t>
+  </si>
+  <si>
+    <t>Are you 18 years or older?</t>
+  </si>
+  <si>
+    <t>I hereby declare that I am willing to participate.</t>
+  </si>
+  <si>
+    <t>1: Yes, I am Muslim; 2: No, I am not Muslim</t>
+  </si>
+  <si>
+    <t>1: Yes, I am a health worker; 2: No, I don't work as a health worker</t>
+  </si>
+  <si>
+    <t>1: Yes, I'm 18 years of age or older; 2: No, I am under 18 years of age</t>
+  </si>
+  <si>
+    <t>1: I agree; 2: I disagree</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>identity_threat</t>
+  </si>
+  <si>
+    <t>religious_endorse</t>
+  </si>
+  <si>
+    <t>1: Threatening &amp; vaccine endorsed by Islamic clerics; 2: Non-threatening &amp; vaccine opposed by Islamic clerics; 3: Non-threatening &amp; vaccine endorsed by Islamic clerics; 4: Threatening &amp; vaccine opposed by Islamic clerics</t>
+  </si>
+  <si>
+    <t>Experimental group (block)</t>
+  </si>
+  <si>
+    <t>Identity Threat (group)</t>
+  </si>
+  <si>
+    <t>Religious Endorsement (group)</t>
+  </si>
+  <si>
+    <t>1: Threatening; -1: Non-Threatening</t>
+  </si>
+  <si>
+    <t>1: Endorsed; -1: Not Endorsed</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1388,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,14 +1410,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1326,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,20 +1783,21 @@
     <col min="2" max="2" width="115.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70" style="9" customWidth="1"/>
+    <col min="8" max="8" width="52.5546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1359,233 +1805,201 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
+      <c r="A9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>2</v>
@@ -1593,25 +2007,25 @@
       <c r="E10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>2</v>
@@ -1619,25 +2033,25 @@
       <c r="E11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>2</v>
@@ -1645,25 +2059,25 @@
       <c r="E12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>2</v>
@@ -1671,623 +2085,1662 @@
       <c r="E13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B58" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Study 3 Materials/study-3-scales.xlsx
+++ b/Study 3 Materials/study-3-scales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 3 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD74A48-2473-4B43-8700-6B443858831A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48B79D7-2683-462B-AE82-19266491032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,9 +605,6 @@
     <t>Which of the following choices best describes your work or your daily activities?</t>
   </si>
   <si>
-    <t>1: In the public sector (civil servants); 2: In the private sector (private/independent entrepreneurs); 3: In the non-profit sector (social workers, environmental cadres, PAUD cadres, NGOs, etc.); 4: As a housewife; 5: As a Student; 6: As a Student</t>
-  </si>
-  <si>
     <t>CASE</t>
   </si>
   <si>
@@ -882,6 +879,9 @@
   </si>
   <si>
     <t>1: Endorsed; -1: Not Endorsed</t>
+  </si>
+  <si>
+    <t>1: In the public sector (civil servants); 2: In the private sector (private/independent entrepreneurs); 3: In the non-profit sector (social workers, environmental cadres, PAUD cadres, NGOs, etc.); 4: As a housewife; 5: As a Student; 6: As a University Student</t>
   </si>
 </sst>
 </file>
@@ -1773,14 +1773,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A43" sqref="A43"/>
+      <selection pane="topRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="115.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5546875" customWidth="1"/>
     <col min="3" max="3" width="115.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -1817,19 +1819,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
@@ -1837,19 +1839,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -1857,19 +1859,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -1877,19 +1879,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
@@ -1897,98 +1899,98 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2929,13 +2931,13 @@
     </row>
     <row r="46" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>98</v>
@@ -2944,22 +2946,22 @@
         <v>3</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>98</v>
@@ -2968,22 +2970,22 @@
         <v>3</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>98</v>
@@ -2992,11 +2994,11 @@
         <v>3</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3220,7 +3222,7 @@
         <v>181</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3241,19 +3243,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -3261,19 +3263,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3281,19 +3283,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D61" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -3301,19 +3303,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3321,19 +3323,19 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -3341,19 +3343,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -3361,19 +3363,19 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3381,19 +3383,19 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="C66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D66" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3401,19 +3403,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="C67" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -3421,19 +3423,19 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="C68" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -3441,19 +3443,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3461,19 +3463,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -3481,19 +3483,19 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -3501,19 +3503,19 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -3521,19 +3523,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -3541,19 +3543,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -3561,19 +3563,19 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C75" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3581,19 +3583,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="C76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="E76" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3601,19 +3603,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="C77" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3621,19 +3623,19 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3641,19 +3643,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="C79" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3661,19 +3663,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="C80" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -3681,19 +3683,19 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="C81" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -3701,19 +3703,19 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="C82" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3721,19 +3723,19 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>

--- a/Study 3 Materials/study-3-scales.xlsx
+++ b/Study 3 Materials/study-3-scales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\RESEARCH PROJECTS\conspiracy-belief-special-issue\Study 3 Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48B79D7-2683-462B-AE82-19266491032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAB9C7F-6085-48F6-9F6B-3D06887A4B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="277">
   <si>
     <t>TYPE</t>
   </si>
@@ -882,6 +882,9 @@
   </si>
   <si>
     <t>1: In the public sector (civil servants); 2: In the private sector (private/independent entrepreneurs); 3: In the non-profit sector (social workers, environmental cadres, PAUD cadres, NGOs, etc.); 4: As a housewife; 5: As a Student; 6: As a University Student</t>
+  </si>
+  <si>
+    <t>1: Very much to be blamed on; 5: completely not to be blamed on</t>
   </si>
 </sst>
 </file>
@@ -1773,10 +1776,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="topRight" activeCell="H53" sqref="H53"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,7 +2750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>135</v>
       </c>
@@ -2770,7 +2773,7 @@
         <v>177</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
